--- a/results/mp/deberta/corona/confidence/126/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.1/avg_0.004_scores.xlsx
@@ -1000,25 +1000,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6753246753246753</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L16">
         <v>156</v>
       </c>
       <c r="M16">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1130,25 +1130,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5548780487804879</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L21">
         <v>182</v>
       </c>
       <c r="M21">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="10:17">
